--- a/Recall/Retrieval_professions.xlsx
+++ b/Recall/Retrieval_professions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/pi6342kl_lu_se/Documents/Biofinder/fMRI-tasks/FacesNamesProfessions_fMRI/Recall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6C88F44B-3077-4E23-8257-E8373E5F5736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B85CDA-881D-4403-AD57-F5E466A628BB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{6C88F44B-3077-4E23-8257-E8373E5F5736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B6151D-B4BD-4F9A-86F0-070D56040023}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FFAF0B3-003B-429F-9126-D46998AAACC0}"/>
   </bookViews>
@@ -325,10 +325,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,11 +626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A461CDE-C599-4F63-B222-BAE3EA2357E1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
